--- a/dataanalysis/data/predictions/1200/09181142_1144.xlsx
+++ b/dataanalysis/data/predictions/1200/09181142_1144.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="205">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-18</t>
   </si>
   <si>
@@ -626,12 +629,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -989,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH95"/>
+  <dimension ref="A1:AI95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1098,19 +1095,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1.87</v>
@@ -1128,7 +1128,7 @@
         <v>70273.61</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -1170,10 +1170,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X2" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Y2">
+        <v>-3.33</v>
+      </c>
+      <c r="Z2">
+        <v>14.68</v>
+      </c>
+      <c r="AA2">
+        <v>-0.34</v>
       </c>
       <c r="AC2" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1181,22 +1196,25 @@
       <c r="AG2">
         <v>1.239372611045837</v>
       </c>
-      <c r="AH2" t="s">
-        <v>204</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>3.93</v>
@@ -1214,7 +1232,7 @@
         <v>368329.09</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1256,10 +1274,25 @@
         <v>0.31</v>
       </c>
       <c r="X3" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y3">
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>68.14</v>
+      </c>
+      <c r="AA3">
+        <v>-4.63</v>
       </c>
       <c r="AC3" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1267,22 +1300,25 @@
       <c r="AG3">
         <v>4.486051082611084</v>
       </c>
-      <c r="AH3" t="s">
-        <v>204</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300043</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-4.81</v>
@@ -1300,7 +1336,7 @@
         <v>94475.42</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -1342,10 +1378,25 @@
         <v>-1.32</v>
       </c>
       <c r="X4" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Y4">
+        <v>-2.51</v>
+      </c>
+      <c r="Z4">
+        <v>7.31</v>
+      </c>
+      <c r="AA4">
+        <v>-0.27</v>
       </c>
       <c r="AC4" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1353,22 +1404,25 @@
       <c r="AG4">
         <v>2.064270257949829</v>
       </c>
-      <c r="AH4" t="s">
-        <v>204</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.66</v>
@@ -1386,7 +1440,7 @@
         <v>85252.75999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -1428,10 +1482,25 @@
         <v>-0.04</v>
       </c>
       <c r="X5" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="Y5">
+        <v>-5.94</v>
+      </c>
+      <c r="Z5">
+        <v>88.54000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.1</v>
       </c>
       <c r="AC5" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1439,22 +1508,25 @@
       <c r="AG5">
         <v>6.141924858093262</v>
       </c>
-      <c r="AH5" t="s">
-        <v>204</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300083</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-0.27</v>
@@ -1472,7 +1544,7 @@
         <v>86977.00999999999</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1513,8 +1585,23 @@
       <c r="W6">
         <v>-0.57</v>
       </c>
+      <c r="Y6">
+        <v>-3.24</v>
+      </c>
+      <c r="Z6">
+        <v>10.8</v>
+      </c>
+      <c r="AA6">
+        <v>-3.14</v>
+      </c>
       <c r="AC6" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1522,22 +1609,25 @@
       <c r="AG6">
         <v>3.391217470169067</v>
       </c>
-      <c r="AH6" t="s">
-        <v>204</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300115</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.56</v>
@@ -1555,7 +1645,7 @@
         <v>529025.02</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1597,10 +1687,25 @@
         <v>-0.7</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y7">
+        <v>-8.9</v>
+      </c>
+      <c r="Z7">
+        <v>33.77</v>
+      </c>
+      <c r="AA7">
+        <v>4.07</v>
       </c>
       <c r="AC7" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1608,22 +1713,25 @@
       <c r="AG7">
         <v>15.61310291290283</v>
       </c>
-      <c r="AH7" t="s">
-        <v>204</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300207</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-1.68</v>
@@ -1641,7 +1749,7 @@
         <v>253391.33</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1682,8 +1790,23 @@
       <c r="W8">
         <v>-0.47</v>
       </c>
+      <c r="Y8">
+        <v>-1.32</v>
+      </c>
+      <c r="Z8">
+        <v>30.7</v>
+      </c>
+      <c r="AA8">
+        <v>0.92</v>
+      </c>
       <c r="AC8" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1691,22 +1814,25 @@
       <c r="AG8">
         <v>-3.757857799530029</v>
       </c>
-      <c r="AH8" t="s">
-        <v>204</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300209</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-2.65</v>
@@ -1724,7 +1850,7 @@
         <v>21267.99</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1766,10 +1892,25 @@
         <v>-0.61</v>
       </c>
       <c r="X9" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y9">
+        <v>4.75</v>
+      </c>
+      <c r="Z9">
+        <v>6.84</v>
+      </c>
+      <c r="AA9">
+        <v>9.44</v>
       </c>
       <c r="AC9" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1777,22 +1918,25 @@
       <c r="AG9">
         <v>40.65272521972656</v>
       </c>
-      <c r="AH9" t="s">
-        <v>204</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300237</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-1.06</v>
@@ -1810,7 +1954,7 @@
         <v>34339.33</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1852,10 +1996,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X10" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y10">
+        <v>-6.44</v>
+      </c>
+      <c r="Z10">
+        <v>3.56</v>
+      </c>
+      <c r="AA10">
+        <v>-4.3</v>
       </c>
       <c r="AC10" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1863,22 +2022,25 @@
       <c r="AG10">
         <v>1.322168827056885</v>
       </c>
-      <c r="AH10" t="s">
-        <v>204</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300252</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.31</v>
@@ -1896,7 +2058,7 @@
         <v>97125.58</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1938,10 +2100,25 @@
         <v>-0.99</v>
       </c>
       <c r="X11" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y11">
+        <v>-0.19</v>
+      </c>
+      <c r="Z11">
+        <v>16.98</v>
+      </c>
+      <c r="AA11">
+        <v>6.32</v>
       </c>
       <c r="AC11" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1949,22 +2126,25 @@
       <c r="AG11">
         <v>0.1379073709249496</v>
       </c>
-      <c r="AH11" t="s">
-        <v>204</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300258</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>1.53</v>
@@ -1982,7 +2162,7 @@
         <v>63641.11</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2023,8 +2203,23 @@
       <c r="W12">
         <v>0.05</v>
       </c>
+      <c r="Y12">
+        <v>-3.73</v>
+      </c>
+      <c r="Z12">
+        <v>16.5</v>
+      </c>
+      <c r="AA12">
+        <v>-4.46</v>
+      </c>
       <c r="AC12" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2032,22 +2227,25 @@
       <c r="AG12">
         <v>1.890177488327026</v>
       </c>
-      <c r="AH12" t="s">
-        <v>204</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300274</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0.16</v>
@@ -2065,7 +2263,7 @@
         <v>1008156.77</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -2107,10 +2305,25 @@
         <v>-0.31</v>
       </c>
       <c r="X13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="Y13">
+        <v>-3.75</v>
+      </c>
+      <c r="Z13">
+        <v>142.3</v>
+      </c>
+      <c r="AA13">
+        <v>0.76</v>
       </c>
       <c r="AC13" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2118,22 +2331,25 @@
       <c r="AG13">
         <v>12.93113803863525</v>
       </c>
-      <c r="AH13" t="s">
-        <v>204</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-3.08</v>
@@ -2151,7 +2367,7 @@
         <v>76376.00999999999</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2193,10 +2409,25 @@
         <v>-0.54</v>
       </c>
       <c r="X14" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Y14">
+        <v>0.57</v>
+      </c>
+      <c r="Z14">
+        <v>29.61</v>
+      </c>
+      <c r="AA14">
+        <v>-2.89</v>
       </c>
       <c r="AC14" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2204,22 +2435,25 @@
       <c r="AG14">
         <v>2.346520662307739</v>
       </c>
-      <c r="AH14" t="s">
-        <v>204</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300304</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>6.27</v>
@@ -2237,7 +2471,7 @@
         <v>62807.21</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -2278,8 +2512,23 @@
       <c r="W15">
         <v>0.24</v>
       </c>
+      <c r="Y15">
+        <v>-5</v>
+      </c>
+      <c r="Z15">
+        <v>14.62</v>
+      </c>
+      <c r="AA15">
+        <v>-6.22</v>
+      </c>
       <c r="AC15" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>1</v>
@@ -2287,22 +2536,25 @@
       <c r="AG15">
         <v>2.515290260314941</v>
       </c>
-      <c r="AH15" t="s">
-        <v>205</v>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300324</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.53</v>
@@ -2320,7 +2572,7 @@
         <v>145619.69</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2362,10 +2614,25 @@
         <v>-0.53</v>
       </c>
       <c r="X16" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y16">
+        <v>3.31</v>
+      </c>
+      <c r="Z16">
+        <v>7.93</v>
+      </c>
+      <c r="AA16">
+        <v>3.66</v>
       </c>
       <c r="AC16" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2373,22 +2640,25 @@
       <c r="AG16">
         <v>0.5373227596282959</v>
       </c>
-      <c r="AH16" t="s">
-        <v>204</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300328</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>2.93</v>
@@ -2406,7 +2676,7 @@
         <v>115941.24</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2448,10 +2718,25 @@
         <v>-0.41</v>
       </c>
       <c r="X17" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="Y17">
+        <v>-2.19</v>
+      </c>
+      <c r="Z17">
+        <v>19.48</v>
+      </c>
+      <c r="AA17">
+        <v>-1.12</v>
       </c>
       <c r="AC17" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2459,22 +2744,25 @@
       <c r="AG17">
         <v>0.3362114727497101</v>
       </c>
-      <c r="AH17" t="s">
-        <v>204</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300331</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>6.58</v>
@@ -2492,7 +2780,7 @@
         <v>203037.96</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2534,10 +2822,25 @@
         <v>-0.37</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y18">
+        <v>4.34</v>
+      </c>
+      <c r="Z18">
+        <v>42</v>
+      </c>
+      <c r="AA18">
+        <v>2.44</v>
       </c>
       <c r="AC18" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2545,22 +2848,25 @@
       <c r="AG18">
         <v>3.259279251098633</v>
       </c>
-      <c r="AH18" t="s">
-        <v>204</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300382</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>7.76</v>
@@ -2578,7 +2884,7 @@
         <v>91721.32000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -2620,10 +2926,25 @@
         <v>0.01</v>
       </c>
       <c r="X19" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y19">
+        <v>-2.3</v>
+      </c>
+      <c r="Z19">
+        <v>18.5</v>
+      </c>
+      <c r="AA19">
+        <v>-6.14</v>
       </c>
       <c r="AC19" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2631,22 +2952,25 @@
       <c r="AG19">
         <v>5.072074413299561</v>
       </c>
-      <c r="AH19" t="s">
-        <v>204</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300409</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.43</v>
@@ -2664,7 +2988,7 @@
         <v>142203.9</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20">
         <v>24</v>
@@ -2706,10 +3030,25 @@
         <v>0.4</v>
       </c>
       <c r="X20" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y20">
+        <v>-4.85</v>
+      </c>
+      <c r="Z20">
+        <v>26</v>
+      </c>
+      <c r="AA20">
+        <v>-3.17</v>
       </c>
       <c r="AC20" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2717,22 +3056,25 @@
       <c r="AG20">
         <v>10.19793605804443</v>
       </c>
-      <c r="AH20" t="s">
-        <v>204</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300433</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1.5</v>
@@ -2750,7 +3092,7 @@
         <v>291408.59</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2791,8 +3133,23 @@
       <c r="W21">
         <v>-0.06</v>
       </c>
+      <c r="Y21">
+        <v>-2.87</v>
+      </c>
+      <c r="Z21">
+        <v>31.9</v>
+      </c>
+      <c r="AA21">
+        <v>-2.09</v>
+      </c>
       <c r="AC21" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2800,22 +3157,25 @@
       <c r="AG21">
         <v>28.68449592590332</v>
       </c>
-      <c r="AH21" t="s">
-        <v>204</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300450</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>4.44</v>
@@ -2833,7 +3193,7 @@
         <v>705586.59</v>
       </c>
       <c r="J22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K22">
         <v>15</v>
@@ -2875,10 +3235,25 @@
         <v>0.13</v>
       </c>
       <c r="X22" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y22">
+        <v>-1.99</v>
+      </c>
+      <c r="Z22">
+        <v>59.88</v>
+      </c>
+      <c r="AA22">
+        <v>7.02</v>
       </c>
       <c r="AC22" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2886,22 +3261,25 @@
       <c r="AG22">
         <v>3.177049875259399</v>
       </c>
-      <c r="AH22" t="s">
-        <v>204</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300457</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.77</v>
@@ -2919,7 +3297,7 @@
         <v>136299.56</v>
       </c>
       <c r="J23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2961,10 +3339,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X23" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y23">
+        <v>-5.15</v>
+      </c>
+      <c r="Z23">
+        <v>34.88</v>
+      </c>
+      <c r="AA23">
+        <v>-1.02</v>
       </c>
       <c r="AC23" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2972,22 +3365,25 @@
       <c r="AG23">
         <v>-1.479454636573792</v>
       </c>
-      <c r="AH23" t="s">
-        <v>204</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300458</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>3.99</v>
@@ -3005,7 +3401,7 @@
         <v>328042.62</v>
       </c>
       <c r="J24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -3047,10 +3443,25 @@
         <v>-0.17</v>
       </c>
       <c r="X24" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y24">
+        <v>-3.02</v>
+      </c>
+      <c r="Z24">
+        <v>51.1</v>
+      </c>
+      <c r="AA24">
+        <v>-3.44</v>
       </c>
       <c r="AC24" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3058,22 +3469,25 @@
       <c r="AG24">
         <v>-19.01957130432129</v>
       </c>
-      <c r="AH24" t="s">
-        <v>204</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300469</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.98</v>
@@ -3091,7 +3505,7 @@
         <v>89383.89999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K25">
         <v>21</v>
@@ -3133,10 +3547,25 @@
         <v>0.06</v>
       </c>
       <c r="X25" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="Y25">
+        <v>-2.47</v>
+      </c>
+      <c r="Z25">
+        <v>90.8</v>
+      </c>
+      <c r="AA25">
+        <v>-0.71</v>
       </c>
       <c r="AC25" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3144,22 +3573,25 @@
       <c r="AG25">
         <v>-1.910584688186646</v>
       </c>
-      <c r="AH25" t="s">
-        <v>204</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300475</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.64</v>
@@ -3177,7 +3609,7 @@
         <v>197062.5</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -3219,10 +3651,25 @@
         <v>-0.21</v>
       </c>
       <c r="X26" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y26">
+        <v>2.68</v>
+      </c>
+      <c r="Z26">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="AA26">
+        <v>3.85</v>
       </c>
       <c r="AC26" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3230,22 +3677,25 @@
       <c r="AG26">
         <v>-1.718182325363159</v>
       </c>
-      <c r="AH26" t="s">
-        <v>204</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300476</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0.89</v>
@@ -3263,7 +3713,7 @@
         <v>978021.38</v>
       </c>
       <c r="J27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K27">
         <v>72</v>
@@ -3305,10 +3755,25 @@
         <v>-0.1</v>
       </c>
       <c r="X27" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y27">
+        <v>-1.69</v>
+      </c>
+      <c r="Z27">
+        <v>329.12</v>
+      </c>
+      <c r="AA27">
+        <v>-2.29</v>
       </c>
       <c r="AC27" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3316,22 +3781,25 @@
       <c r="AG27">
         <v>-1.306910276412964</v>
       </c>
-      <c r="AH27" t="s">
-        <v>204</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300499</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2.67</v>
@@ -3349,7 +3817,7 @@
         <v>129711.12</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3391,10 +3859,25 @@
         <v>0.1</v>
       </c>
       <c r="X28" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y28">
+        <v>-7.33</v>
+      </c>
+      <c r="Z28">
+        <v>34.49</v>
+      </c>
+      <c r="AA28">
+        <v>4.14</v>
       </c>
       <c r="AC28" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3402,22 +3885,25 @@
       <c r="AG28">
         <v>1.46865701675415</v>
       </c>
-      <c r="AH28" t="s">
-        <v>204</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300503</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.35</v>
@@ -3435,7 +3921,7 @@
         <v>74141.53999999999</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3477,10 +3963,25 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y29">
+        <v>-4.53</v>
+      </c>
+      <c r="Z29">
+        <v>32.86</v>
+      </c>
+      <c r="AA29">
+        <v>-4.2</v>
       </c>
       <c r="AC29" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3488,22 +3989,25 @@
       <c r="AG29">
         <v>2.784179210662842</v>
       </c>
-      <c r="AH29" t="s">
-        <v>204</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300528</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>0.88</v>
@@ -3521,7 +4025,7 @@
         <v>102934.57</v>
       </c>
       <c r="J30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -3563,10 +4067,25 @@
         <v>-0.71</v>
       </c>
       <c r="X30" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Y30">
+        <v>-1.79</v>
+      </c>
+      <c r="Z30">
+        <v>28.1</v>
+      </c>
+      <c r="AA30">
+        <v>-1.4</v>
       </c>
       <c r="AC30" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3574,22 +4093,25 @@
       <c r="AG30">
         <v>-2.710730314254761</v>
       </c>
-      <c r="AH30" t="s">
-        <v>204</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300539</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>8.130000000000001</v>
@@ -3607,7 +4129,7 @@
         <v>106621.93</v>
       </c>
       <c r="J31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K31">
         <v>10</v>
@@ -3649,10 +4171,25 @@
         <v>0.75</v>
       </c>
       <c r="X31" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y31">
+        <v>-5.56</v>
+      </c>
+      <c r="Z31">
+        <v>42.83</v>
+      </c>
+      <c r="AA31">
+        <v>-4.14</v>
       </c>
       <c r="AC31" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3660,22 +4197,25 @@
       <c r="AG31">
         <v>-0.4900420606136322</v>
       </c>
-      <c r="AH31" t="s">
-        <v>204</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300604</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>4.51</v>
@@ -3693,7 +4233,7 @@
         <v>231122.18</v>
       </c>
       <c r="J32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -3735,10 +4275,25 @@
         <v>0.15</v>
       </c>
       <c r="X32" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Y32">
+        <v>-1.39</v>
+      </c>
+      <c r="Z32">
+        <v>67.13</v>
+      </c>
+      <c r="AA32">
+        <v>-0.8</v>
       </c>
       <c r="AC32" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3746,22 +4301,25 @@
       <c r="AG32">
         <v>5.643122673034668</v>
       </c>
-      <c r="AH32" t="s">
-        <v>204</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300620</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>17.74</v>
@@ -3779,7 +4337,7 @@
         <v>386758.48</v>
       </c>
       <c r="J33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K33">
         <v>7</v>
@@ -3821,10 +4379,25 @@
         <v>1.15</v>
       </c>
       <c r="X33" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y33">
+        <v>1.77</v>
+      </c>
+      <c r="Z33">
+        <v>131.1</v>
+      </c>
+      <c r="AA33">
+        <v>3.97</v>
       </c>
       <c r="AC33" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3832,22 +4405,25 @@
       <c r="AG33">
         <v>9.719367980957031</v>
       </c>
-      <c r="AH33" t="s">
-        <v>205</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300660</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>3.58</v>
@@ -3865,7 +4441,7 @@
         <v>160669.03</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3907,10 +4483,25 @@
         <v>0.24</v>
       </c>
       <c r="X34" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y34">
+        <v>-8</v>
+      </c>
+      <c r="Z34">
+        <v>62.33</v>
+      </c>
+      <c r="AA34">
+        <v>-3.89</v>
       </c>
       <c r="AC34" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3918,22 +4509,25 @@
       <c r="AG34">
         <v>5.302196979522705</v>
       </c>
-      <c r="AH34" t="s">
-        <v>204</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300661</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>4.41</v>
@@ -3951,7 +4545,7 @@
         <v>386960.54</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3993,10 +4587,25 @@
         <v>0.06</v>
       </c>
       <c r="X35" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y35">
+        <v>-3.23</v>
+      </c>
+      <c r="Z35">
+        <v>86.5</v>
+      </c>
+      <c r="AA35">
+        <v>-1.46</v>
       </c>
       <c r="AC35" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4004,22 +4613,25 @@
       <c r="AG35">
         <v>8.929299354553223</v>
       </c>
-      <c r="AH35" t="s">
-        <v>204</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300680</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-2.19</v>
@@ -4037,7 +4649,7 @@
         <v>104975.42</v>
       </c>
       <c r="J36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -4079,10 +4691,25 @@
         <v>-0.05</v>
       </c>
       <c r="X36" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y36">
+        <v>-4.61</v>
+      </c>
+      <c r="Z36">
+        <v>61.5</v>
+      </c>
+      <c r="AA36">
+        <v>-4.95</v>
       </c>
       <c r="AC36" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4090,22 +4717,25 @@
       <c r="AG36">
         <v>1.25108015537262</v>
       </c>
-      <c r="AH36" t="s">
-        <v>204</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300684</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>3.68</v>
@@ -4123,7 +4753,7 @@
         <v>183477.41</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -4165,10 +4795,25 @@
         <v>1.23</v>
       </c>
       <c r="X37" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y37">
+        <v>-3.44</v>
+      </c>
+      <c r="Z37">
+        <v>45.5</v>
+      </c>
+      <c r="AA37">
+        <v>-1.62</v>
       </c>
       <c r="AC37" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4176,22 +4821,25 @@
       <c r="AG37">
         <v>4.594570636749268</v>
       </c>
-      <c r="AH37" t="s">
-        <v>204</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300697</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-5.9</v>
@@ -4209,7 +4857,7 @@
         <v>68932.25999999999</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4251,10 +4899,25 @@
         <v>-0.15</v>
       </c>
       <c r="X38" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y38">
+        <v>-2.51</v>
+      </c>
+      <c r="Z38">
+        <v>17.44</v>
+      </c>
+      <c r="AA38">
+        <v>-4.91</v>
       </c>
       <c r="AC38" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4262,22 +4925,25 @@
       <c r="AG38">
         <v>2.487106800079346</v>
       </c>
-      <c r="AH38" t="s">
-        <v>204</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300727</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>2.57</v>
@@ -4295,7 +4961,7 @@
         <v>34791.13</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K39">
         <v>25</v>
@@ -4337,10 +5003,25 @@
         <v>0.25</v>
       </c>
       <c r="X39" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y39">
+        <v>-2.53</v>
+      </c>
+      <c r="Z39">
+        <v>44.4</v>
+      </c>
+      <c r="AA39">
+        <v>-0.78</v>
       </c>
       <c r="AC39" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4348,22 +5029,25 @@
       <c r="AG39">
         <v>5.776860237121582</v>
       </c>
-      <c r="AH39" t="s">
-        <v>204</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300757</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.17</v>
@@ -4381,7 +5065,7 @@
         <v>197365.16</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -4423,10 +5107,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X40" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y40">
+        <v>-1.63</v>
+      </c>
+      <c r="Z40">
+        <v>289.34</v>
+      </c>
+      <c r="AA40">
+        <v>-2.54</v>
       </c>
       <c r="AC40" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4434,22 +5133,25 @@
       <c r="AG40">
         <v>0.507049560546875</v>
       </c>
-      <c r="AH40" t="s">
-        <v>204</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300790</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>0.66</v>
@@ -4467,7 +5169,7 @@
         <v>50530.43</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K41">
         <v>13</v>
@@ -4508,8 +5210,23 @@
       <c r="W41">
         <v>-0.14</v>
       </c>
+      <c r="Y41">
+        <v>-2.68</v>
+      </c>
+      <c r="Z41">
+        <v>34.72</v>
+      </c>
+      <c r="AA41">
+        <v>-1.22</v>
+      </c>
       <c r="AC41" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4517,22 +5234,25 @@
       <c r="AG41">
         <v>12.93392944335938</v>
       </c>
-      <c r="AH41" t="s">
-        <v>204</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300803</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-5.7</v>
@@ -4550,7 +5270,7 @@
         <v>683031.35</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K42">
         <v>28</v>
@@ -4592,10 +5312,25 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="X42" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="Y42">
+        <v>-3.51</v>
+      </c>
+      <c r="Z42">
+        <v>161.32</v>
+      </c>
+      <c r="AA42">
+        <v>-1.04</v>
       </c>
       <c r="AC42" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4603,22 +5338,25 @@
       <c r="AG42">
         <v>0.6138318181037903</v>
       </c>
-      <c r="AH42" t="s">
-        <v>204</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300814</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.94</v>
@@ -4636,7 +5374,7 @@
         <v>34091.69</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K43">
         <v>3</v>
@@ -4678,10 +5416,25 @@
         <v>-0.03</v>
       </c>
       <c r="X43" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y43">
+        <v>5.33</v>
+      </c>
+      <c r="Z43">
+        <v>54.36</v>
+      </c>
+      <c r="AA43">
+        <v>5.41</v>
       </c>
       <c r="AC43" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4689,22 +5442,25 @@
       <c r="AG43">
         <v>0.727016270160675</v>
       </c>
-      <c r="AH43" t="s">
-        <v>204</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300843</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.61</v>
@@ -4722,7 +5478,7 @@
         <v>87185.10000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4764,10 +5520,25 @@
         <v>-0.01</v>
       </c>
       <c r="X44" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y44">
+        <v>-3.21</v>
+      </c>
+      <c r="Z44">
+        <v>60.3</v>
+      </c>
+      <c r="AA44">
+        <v>-3.29</v>
       </c>
       <c r="AC44" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4775,22 +5546,25 @@
       <c r="AG44">
         <v>2.184794664382935</v>
       </c>
-      <c r="AH44" t="s">
-        <v>204</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300852</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.05</v>
@@ -4808,7 +5582,7 @@
         <v>47288</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K45">
         <v>5</v>
@@ -4850,10 +5624,25 @@
         <v>0.13</v>
       </c>
       <c r="X45" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="Y45">
+        <v>-3.84</v>
+      </c>
+      <c r="Z45">
+        <v>45.73</v>
+      </c>
+      <c r="AA45">
+        <v>-4.49</v>
       </c>
       <c r="AC45" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4861,22 +5650,25 @@
       <c r="AG45">
         <v>2.527992248535156</v>
       </c>
-      <c r="AH45" t="s">
-        <v>204</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300857</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>1.02</v>
@@ -4894,7 +5686,7 @@
         <v>206397.58</v>
       </c>
       <c r="J46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K46">
         <v>20</v>
@@ -4936,10 +5728,25 @@
         <v>0.08</v>
       </c>
       <c r="X46" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y46">
+        <v>0.26</v>
+      </c>
+      <c r="Z46">
+        <v>169</v>
+      </c>
+      <c r="AA46">
+        <v>-0.18</v>
       </c>
       <c r="AC46" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4947,22 +5754,25 @@
       <c r="AG46">
         <v>2.537152767181396</v>
       </c>
-      <c r="AH46" t="s">
-        <v>205</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300953</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>4.98</v>
@@ -4980,7 +5790,7 @@
         <v>141831.13</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K47">
         <v>17</v>
@@ -5022,10 +5832,25 @@
         <v>0.43</v>
       </c>
       <c r="X47" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y47">
+        <v>-5.04</v>
+      </c>
+      <c r="Z47">
+        <v>166.91</v>
+      </c>
+      <c r="AA47">
+        <v>-8.470000000000001</v>
       </c>
       <c r="AC47" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5033,22 +5858,25 @@
       <c r="AG47">
         <v>1.106683731079102</v>
       </c>
-      <c r="AH47" t="s">
-        <v>204</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300959</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-7.7</v>
@@ -5066,7 +5894,7 @@
         <v>86711.39</v>
       </c>
       <c r="J48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -5108,10 +5936,25 @@
         <v>0.08</v>
       </c>
       <c r="X48" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="Y48">
+        <v>-1.95</v>
+      </c>
+      <c r="Z48">
+        <v>79.94</v>
+      </c>
+      <c r="AA48">
+        <v>5.62</v>
       </c>
       <c r="AC48" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5119,22 +5962,25 @@
       <c r="AG48">
         <v>1.019898414611816</v>
       </c>
-      <c r="AH48" t="s">
-        <v>204</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300969</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>13.36</v>
@@ -5152,7 +5998,7 @@
         <v>63368.84</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -5194,10 +6040,25 @@
         <v>1.59</v>
       </c>
       <c r="X49" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y49">
+        <v>-2.95</v>
+      </c>
+      <c r="Z49">
+        <v>116.36</v>
+      </c>
+      <c r="AA49">
+        <v>-6.91</v>
       </c>
       <c r="AC49" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5205,22 +6066,25 @@
       <c r="AG49">
         <v>1.914984464645386</v>
       </c>
-      <c r="AH49" t="s">
-        <v>204</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300984</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.46</v>
@@ -5238,7 +6102,7 @@
         <v>60508.67</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5280,10 +6144,25 @@
         <v>-0.44</v>
       </c>
       <c r="X50" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="Y50">
+        <v>1.07</v>
+      </c>
+      <c r="Z50">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>-0.82</v>
       </c>
       <c r="AC50" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5291,22 +6170,25 @@
       <c r="AG50">
         <v>4.574649333953857</v>
       </c>
-      <c r="AH50" t="s">
-        <v>204</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301008</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>8.699999999999999</v>
@@ -5324,7 +6206,7 @@
         <v>80478.60000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5366,10 +6248,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X51" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y51">
+        <v>-2.03</v>
+      </c>
+      <c r="Z51">
+        <v>43.64</v>
+      </c>
+      <c r="AA51">
+        <v>-4.3</v>
       </c>
       <c r="AC51" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5377,22 +6274,25 @@
       <c r="AG51">
         <v>2.355251550674438</v>
       </c>
-      <c r="AH51" t="s">
-        <v>204</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301012</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>5.32</v>
@@ -5410,7 +6310,7 @@
         <v>96071.67999999999</v>
       </c>
       <c r="J52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5452,10 +6352,25 @@
         <v>1.47</v>
       </c>
       <c r="X52" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="Y52">
+        <v>-2.65</v>
+      </c>
+      <c r="Z52">
+        <v>27.62</v>
+      </c>
+      <c r="AA52">
+        <v>-1</v>
       </c>
       <c r="AC52" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5463,22 +6378,25 @@
       <c r="AG52">
         <v>9.12492847442627</v>
       </c>
-      <c r="AH52" t="s">
-        <v>204</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301013</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>19.99</v>
@@ -5496,7 +6414,7 @@
         <v>168611.53</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -5538,10 +6456,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X53" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y53">
+        <v>-8.960000000000001</v>
+      </c>
+      <c r="Z53">
+        <v>29.79</v>
+      </c>
+      <c r="AA53">
+        <v>1.92</v>
       </c>
       <c r="AC53" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5549,22 +6482,25 @@
       <c r="AG53">
         <v>8.263845443725586</v>
       </c>
-      <c r="AH53" t="s">
-        <v>204</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301018</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>5.67</v>
@@ -5582,7 +6518,7 @@
         <v>82793.7</v>
       </c>
       <c r="J54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -5624,10 +6560,25 @@
         <v>0.46</v>
       </c>
       <c r="X54" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y54">
+        <v>-4.27</v>
+      </c>
+      <c r="Z54">
+        <v>80.12</v>
+      </c>
+      <c r="AA54">
+        <v>3.62</v>
       </c>
       <c r="AC54" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5635,22 +6586,25 @@
       <c r="AG54">
         <v>-0.5523329377174377</v>
       </c>
-      <c r="AH54" t="s">
-        <v>204</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301123</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-1.79</v>
@@ -5668,7 +6622,7 @@
         <v>44913.69</v>
       </c>
       <c r="J55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5710,10 +6664,25 @@
         <v>-0.11</v>
       </c>
       <c r="X55" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y55">
+        <v>2.85</v>
+      </c>
+      <c r="Z55">
+        <v>52.55</v>
+      </c>
+      <c r="AA55">
+        <v>3.83</v>
       </c>
       <c r="AC55" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5721,22 +6690,25 @@
       <c r="AG55">
         <v>-0.9837242960929871</v>
       </c>
-      <c r="AH55" t="s">
-        <v>204</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301150</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.79</v>
@@ -5754,7 +6726,7 @@
         <v>45748.23</v>
       </c>
       <c r="J56" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K56">
         <v>13</v>
@@ -5796,10 +6768,25 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="Y56">
+        <v>5.53</v>
+      </c>
+      <c r="Z56">
+        <v>43</v>
+      </c>
+      <c r="AA56">
+        <v>4.85</v>
       </c>
       <c r="AC56" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5807,22 +6794,25 @@
       <c r="AG56">
         <v>2.656916618347168</v>
       </c>
-      <c r="AH56" t="s">
-        <v>204</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301165</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>3.61</v>
@@ -5840,7 +6830,7 @@
         <v>80881.83</v>
       </c>
       <c r="J57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5881,8 +6871,23 @@
       <c r="W57">
         <v>0.06</v>
       </c>
+      <c r="Y57">
+        <v>-1.71</v>
+      </c>
+      <c r="Z57">
+        <v>96.5</v>
+      </c>
+      <c r="AA57">
+        <v>1.81</v>
+      </c>
       <c r="AC57" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5890,22 +6895,25 @@
       <c r="AG57">
         <v>3.987174510955811</v>
       </c>
-      <c r="AH57" t="s">
-        <v>204</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301183</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.54</v>
@@ -5923,7 +6931,7 @@
         <v>68739.17</v>
       </c>
       <c r="J58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K58">
         <v>6</v>
@@ -5965,10 +6973,25 @@
         <v>-0.14</v>
       </c>
       <c r="X58" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y58">
+        <v>5.79</v>
+      </c>
+      <c r="Z58">
+        <v>115.58</v>
+      </c>
+      <c r="AA58">
+        <v>11.6</v>
       </c>
       <c r="AC58" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5976,22 +6999,25 @@
       <c r="AG58">
         <v>1.421963572502136</v>
       </c>
-      <c r="AH58" t="s">
-        <v>204</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301307</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>7.01</v>
@@ -6009,7 +7035,7 @@
         <v>91148.50999999999</v>
       </c>
       <c r="J59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K59">
         <v>7</v>
@@ -6051,10 +7077,25 @@
         <v>0.92</v>
       </c>
       <c r="X59" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y59">
+        <v>-2.34</v>
+      </c>
+      <c r="Z59">
+        <v>42.08</v>
+      </c>
+      <c r="AA59">
+        <v>0.57</v>
       </c>
       <c r="AC59" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6062,22 +7103,25 @@
       <c r="AG59">
         <v>3.078690528869629</v>
       </c>
-      <c r="AH59" t="s">
-        <v>204</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301377</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.26</v>
@@ -6095,7 +7139,7 @@
         <v>34954.44</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K60">
         <v>7</v>
@@ -6137,10 +7181,25 @@
         <v>0.11</v>
       </c>
       <c r="X60" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="Y60">
+        <v>-1.05</v>
+      </c>
+      <c r="Z60">
+        <v>85.43000000000001</v>
+      </c>
+      <c r="AA60">
+        <v>-0.2</v>
       </c>
       <c r="AC60" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6148,22 +7207,25 @@
       <c r="AG60">
         <v>3.854447364807129</v>
       </c>
-      <c r="AH60" t="s">
-        <v>204</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301389</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>12.71</v>
@@ -6181,7 +7243,7 @@
         <v>121801.8</v>
       </c>
       <c r="J61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6223,10 +7285,25 @@
         <v>1.13</v>
       </c>
       <c r="X61" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="Y61">
+        <v>2.26</v>
+      </c>
+      <c r="Z61">
+        <v>79.88</v>
+      </c>
+      <c r="AA61">
+        <v>7.26</v>
       </c>
       <c r="AC61" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6234,22 +7311,25 @@
       <c r="AG61">
         <v>5.834374904632568</v>
       </c>
-      <c r="AH61" t="s">
-        <v>204</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301396</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.97</v>
@@ -6267,7 +7347,7 @@
         <v>71536.60000000001</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6309,10 +7389,25 @@
         <v>-0.14</v>
       </c>
       <c r="X62" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="Y62">
+        <v>-3.99</v>
+      </c>
+      <c r="Z62">
+        <v>76.77</v>
+      </c>
+      <c r="AA62">
+        <v>-3.7</v>
       </c>
       <c r="AC62" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6320,22 +7415,25 @@
       <c r="AG62">
         <v>3.24283242225647</v>
       </c>
-      <c r="AH62" t="s">
-        <v>204</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301398</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-2.72</v>
@@ -6353,7 +7451,7 @@
         <v>30884.91</v>
       </c>
       <c r="J63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6395,10 +7493,25 @@
         <v>-1.04</v>
       </c>
       <c r="X63" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y63">
+        <v>-5.46</v>
+      </c>
+      <c r="Z63">
+        <v>53.23</v>
+      </c>
+      <c r="AA63">
+        <v>-4.61</v>
       </c>
       <c r="AC63" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6406,22 +7519,25 @@
       <c r="AG63">
         <v>39.96561050415039</v>
       </c>
-      <c r="AH63" t="s">
-        <v>204</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301413</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-3.07</v>
@@ -6439,7 +7555,7 @@
         <v>111558.07</v>
       </c>
       <c r="J64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K64">
         <v>20</v>
@@ -6481,10 +7597,25 @@
         <v>-0.31</v>
       </c>
       <c r="X64" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y64">
+        <v>-9.050000000000001</v>
+      </c>
+      <c r="Z64">
+        <v>178.1</v>
+      </c>
+      <c r="AA64">
+        <v>-6.02</v>
       </c>
       <c r="AC64" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6492,22 +7623,25 @@
       <c r="AG64">
         <v>-3.249379873275757</v>
       </c>
-      <c r="AH64" t="s">
-        <v>204</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301488</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>-4.96</v>
@@ -6525,7 +7659,7 @@
         <v>146523.55</v>
       </c>
       <c r="J65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K65">
         <v>17</v>
@@ -6567,10 +7701,25 @@
         <v>-0.82</v>
       </c>
       <c r="X65" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y65">
+        <v>-11.92</v>
+      </c>
+      <c r="Z65">
+        <v>198.4</v>
+      </c>
+      <c r="AA65">
+        <v>-4.25</v>
       </c>
       <c r="AC65" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6578,22 +7727,25 @@
       <c r="AG65">
         <v>3.260421991348267</v>
       </c>
-      <c r="AH65" t="s">
-        <v>204</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301489</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>8.460000000000001</v>
@@ -6611,7 +7763,7 @@
         <v>54563.91</v>
       </c>
       <c r="J66" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K66">
         <v>8</v>
@@ -6653,10 +7805,25 @@
         <v>0.32</v>
       </c>
       <c r="X66" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y66">
+        <v>3.77</v>
+      </c>
+      <c r="Z66">
+        <v>241.5</v>
+      </c>
+      <c r="AA66">
+        <v>1.91</v>
       </c>
       <c r="AC66" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6664,22 +7831,25 @@
       <c r="AG66">
         <v>0.9681843519210815</v>
       </c>
-      <c r="AH66" t="s">
-        <v>204</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301550</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>2.8</v>
@@ -6697,7 +7867,7 @@
         <v>101860.54</v>
       </c>
       <c r="J67" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -6739,10 +7909,25 @@
         <v>-0.12</v>
       </c>
       <c r="X67" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y67">
+        <v>-7</v>
+      </c>
+      <c r="Z67">
+        <v>127.89</v>
+      </c>
+      <c r="AA67">
+        <v>-4.01</v>
       </c>
       <c r="AC67" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6750,22 +7935,25 @@
       <c r="AG67">
         <v>78.91661834716797</v>
       </c>
-      <c r="AH67" t="s">
-        <v>204</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301600</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>3.91</v>
@@ -6783,7 +7971,7 @@
         <v>50874.17</v>
       </c>
       <c r="J68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K68">
         <v>3</v>
@@ -6825,10 +8013,25 @@
         <v>0.37</v>
       </c>
       <c r="X68" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="Y68">
+        <v>-3.35</v>
+      </c>
+      <c r="Z68">
+        <v>150.55</v>
+      </c>
+      <c r="AA68">
+        <v>-3.6</v>
       </c>
       <c r="AC68" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6836,22 +8039,25 @@
       <c r="AG68">
         <v>4.87997579574585</v>
       </c>
-      <c r="AH68" t="s">
-        <v>204</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688012</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>14.86</v>
@@ -6869,7 +8075,7 @@
         <v>642307.89</v>
       </c>
       <c r="J69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6910,8 +8116,23 @@
       <c r="W69">
         <v>0.3</v>
       </c>
+      <c r="Y69">
+        <v>0.32</v>
+      </c>
+      <c r="Z69">
+        <v>267.74</v>
+      </c>
+      <c r="AA69">
+        <v>2.6</v>
+      </c>
       <c r="AC69" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6919,22 +8140,25 @@
       <c r="AG69">
         <v>-4.110774993896484</v>
       </c>
-      <c r="AH69" t="s">
-        <v>204</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688017</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>5.49</v>
@@ -6952,7 +8176,7 @@
         <v>198487.85</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6994,10 +8218,25 @@
         <v>0.04</v>
       </c>
       <c r="X70" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y70">
+        <v>-6.73</v>
+      </c>
+      <c r="Z70">
+        <v>178</v>
+      </c>
+      <c r="AA70">
+        <v>-5.93</v>
       </c>
       <c r="AC70" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -7005,22 +8244,25 @@
       <c r="AG70">
         <v>9.995036125183105</v>
       </c>
-      <c r="AH70" t="s">
-        <v>204</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688028</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>11.95</v>
@@ -7038,7 +8280,7 @@
         <v>54940.35</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -7080,10 +8322,25 @@
         <v>0.58</v>
       </c>
       <c r="X71" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y71">
+        <v>-5.88</v>
+      </c>
+      <c r="Z71">
+        <v>48.29</v>
+      </c>
+      <c r="AA71">
+        <v>3.12</v>
       </c>
       <c r="AC71" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -7091,22 +8348,25 @@
       <c r="AG71">
         <v>4.873771667480469</v>
       </c>
-      <c r="AH71" t="s">
-        <v>204</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688041</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>4.38</v>
@@ -7124,7 +8384,7 @@
         <v>1179295.44</v>
       </c>
       <c r="J72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -7166,10 +8426,25 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y72">
+        <v>-3.22</v>
+      </c>
+      <c r="Z72">
+        <v>249.99</v>
+      </c>
+      <c r="AA72">
+        <v>-1.32</v>
       </c>
       <c r="AC72" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7177,22 +8452,25 @@
       <c r="AG72">
         <v>8.210519790649414</v>
       </c>
-      <c r="AH72" t="s">
-        <v>204</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688062</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>12.66</v>
@@ -7210,7 +8488,7 @@
         <v>205326.75</v>
       </c>
       <c r="J73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -7252,10 +8530,25 @@
         <v>1.86</v>
       </c>
       <c r="X73" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="Y73">
+        <v>-5.88</v>
+      </c>
+      <c r="Z73">
+        <v>54.72</v>
+      </c>
+      <c r="AA73">
+        <v>0.44</v>
       </c>
       <c r="AC73" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7263,22 +8556,25 @@
       <c r="AG73">
         <v>-8.715607643127441</v>
       </c>
-      <c r="AH73" t="s">
-        <v>204</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688110</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-0.24</v>
@@ -7296,7 +8592,7 @@
         <v>277876.58</v>
       </c>
       <c r="J74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K74">
         <v>5</v>
@@ -7338,10 +8634,25 @@
         <v>-0.6</v>
       </c>
       <c r="X74" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y74">
+        <v>-4.38</v>
+      </c>
+      <c r="Z74">
+        <v>121.32</v>
+      </c>
+      <c r="AA74">
+        <v>-3.68</v>
       </c>
       <c r="AC74" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7349,22 +8660,25 @@
       <c r="AG74">
         <v>-3.195112228393555</v>
       </c>
-      <c r="AH74" t="s">
-        <v>204</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688135</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>11.12</v>
@@ -7382,7 +8696,7 @@
         <v>146460.21</v>
       </c>
       <c r="J75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K75">
         <v>13</v>
@@ -7424,10 +8738,25 @@
         <v>0.23</v>
       </c>
       <c r="X75" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y75">
+        <v>-5.5</v>
+      </c>
+      <c r="Z75">
+        <v>35.85</v>
+      </c>
+      <c r="AA75">
+        <v>-4.09</v>
       </c>
       <c r="AC75" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7435,22 +8764,25 @@
       <c r="AG75">
         <v>8.27326488494873</v>
       </c>
-      <c r="AH75" t="s">
-        <v>204</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688141</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>5.21</v>
@@ -7468,7 +8800,7 @@
         <v>68063.89999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K76">
         <v>12</v>
@@ -7510,10 +8842,25 @@
         <v>0.8</v>
       </c>
       <c r="X76" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y76">
+        <v>-2.9</v>
+      </c>
+      <c r="Z76">
+        <v>52.8</v>
+      </c>
+      <c r="AA76">
+        <v>0.21</v>
       </c>
       <c r="AC76" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7521,22 +8868,25 @@
       <c r="AG76">
         <v>3.719907999038696</v>
       </c>
-      <c r="AH76" t="s">
-        <v>204</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688147</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.78</v>
@@ -7554,7 +8904,7 @@
         <v>47444.05</v>
       </c>
       <c r="J77" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K77">
         <v>24</v>
@@ -7596,10 +8946,25 @@
         <v>-0.22</v>
       </c>
       <c r="X77" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Y77">
+        <v>0.3</v>
+      </c>
+      <c r="Z77">
+        <v>49.61</v>
+      </c>
+      <c r="AA77">
+        <v>0.83</v>
       </c>
       <c r="AC77" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7607,22 +8972,25 @@
       <c r="AG77">
         <v>4.210269927978516</v>
       </c>
-      <c r="AH77" t="s">
-        <v>204</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688167</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>3.99</v>
@@ -7640,7 +9008,7 @@
         <v>123131.87</v>
       </c>
       <c r="J78" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -7682,10 +9050,25 @@
         <v>0.22</v>
       </c>
       <c r="X78" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y78">
+        <v>-1.09</v>
+      </c>
+      <c r="Z78">
+        <v>186</v>
+      </c>
+      <c r="AA78">
+        <v>1.64</v>
       </c>
       <c r="AC78" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7693,22 +9076,25 @@
       <c r="AG78">
         <v>-5.062399864196777</v>
       </c>
-      <c r="AH78" t="s">
-        <v>204</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688195</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>9.98</v>
@@ -7726,7 +9112,7 @@
         <v>105512.01</v>
       </c>
       <c r="J79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K79">
         <v>24</v>
@@ -7768,10 +9154,25 @@
         <v>0.45</v>
       </c>
       <c r="X79" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="Y79">
+        <v>14.94</v>
+      </c>
+      <c r="Z79">
+        <v>137.79</v>
+      </c>
+      <c r="AA79">
+        <v>13.89</v>
       </c>
       <c r="AC79" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7779,22 +9180,25 @@
       <c r="AG79">
         <v>-25.33457183837891</v>
       </c>
-      <c r="AH79" t="s">
-        <v>204</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688205</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>20</v>
@@ -7812,7 +9216,7 @@
         <v>212421.84</v>
       </c>
       <c r="J80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -7854,10 +9258,25 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="X80" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y80">
+        <v>9.69</v>
+      </c>
+      <c r="Z80">
+        <v>161.7</v>
+      </c>
+      <c r="AA80">
+        <v>15.17</v>
       </c>
       <c r="AC80" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
       <c r="AF80">
         <v>1</v>
@@ -7865,22 +9284,25 @@
       <c r="AG80">
         <v>12.56642532348633</v>
       </c>
-      <c r="AH80" t="s">
-        <v>205</v>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688228</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>2.36</v>
@@ -7898,7 +9320,7 @@
         <v>49768.8</v>
       </c>
       <c r="J81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K81">
         <v>7</v>
@@ -7940,10 +9362,25 @@
         <v>-0.24</v>
       </c>
       <c r="X81" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="Y81">
+        <v>7.32</v>
+      </c>
+      <c r="Z81">
+        <v>195.78</v>
+      </c>
+      <c r="AA81">
+        <v>6.64</v>
       </c>
       <c r="AC81" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7951,22 +9388,25 @@
       <c r="AG81">
         <v>-4.747612476348877</v>
       </c>
-      <c r="AH81" t="s">
-        <v>204</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688256</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>2.14</v>
@@ -7984,7 +9424,7 @@
         <v>1542226.33</v>
       </c>
       <c r="J82" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K82">
         <v>6</v>
@@ -8026,10 +9466,25 @@
         <v>0.03</v>
       </c>
       <c r="X82" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y82">
+        <v>-5.05</v>
+      </c>
+      <c r="Z82">
+        <v>1420</v>
+      </c>
+      <c r="AA82">
+        <v>-3.59</v>
       </c>
       <c r="AC82" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -8037,22 +9492,25 @@
       <c r="AG82">
         <v>2.635834932327271</v>
       </c>
-      <c r="AH82" t="s">
-        <v>204</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688343</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>4.53</v>
@@ -8070,7 +9528,7 @@
         <v>163545.55</v>
       </c>
       <c r="J83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -8112,10 +9570,25 @@
         <v>0.23</v>
       </c>
       <c r="X83" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y83">
+        <v>-4.33</v>
+      </c>
+      <c r="Z83">
+        <v>90.52</v>
+      </c>
+      <c r="AA83">
+        <v>-2.09</v>
       </c>
       <c r="AC83" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -8123,22 +9596,25 @@
       <c r="AG83">
         <v>-3.973406076431274</v>
       </c>
-      <c r="AH83" t="s">
-        <v>204</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688347</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>5.64</v>
@@ -8156,7 +9632,7 @@
         <v>196530.61</v>
       </c>
       <c r="J84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K84">
         <v>6</v>
@@ -8198,10 +9674,25 @@
         <v>0.05</v>
       </c>
       <c r="X84" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y84">
+        <v>0.62</v>
+      </c>
+      <c r="Z84">
+        <v>86.8</v>
+      </c>
+      <c r="AA84">
+        <v>1.83</v>
       </c>
       <c r="AC84" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8209,22 +9700,25 @@
       <c r="AG84">
         <v>5.79471492767334</v>
       </c>
-      <c r="AH84" t="s">
-        <v>204</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688388</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>2.04</v>
@@ -8242,7 +9736,7 @@
         <v>80715.83</v>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K85">
         <v>13</v>
@@ -8284,10 +9778,25 @@
         <v>-0.15</v>
       </c>
       <c r="X85" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y85">
+        <v>-3.41</v>
+      </c>
+      <c r="Z85">
+        <v>33.4</v>
+      </c>
+      <c r="AA85">
+        <v>-4.57</v>
       </c>
       <c r="AC85" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8295,22 +9804,25 @@
       <c r="AG85">
         <v>2.087238788604736</v>
       </c>
-      <c r="AH85" t="s">
-        <v>204</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688411</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-2.62</v>
@@ -8328,7 +9840,7 @@
         <v>49192.16</v>
       </c>
       <c r="J86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K86">
         <v>13</v>
@@ -8370,10 +9882,25 @@
         <v>0.03</v>
       </c>
       <c r="X86" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y86">
+        <v>1.71</v>
+      </c>
+      <c r="Z86">
+        <v>203.3</v>
+      </c>
+      <c r="AA86">
+        <v>-0.59</v>
       </c>
       <c r="AC86" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8381,22 +9908,25 @@
       <c r="AG86">
         <v>0.3863844871520996</v>
       </c>
-      <c r="AH86" t="s">
-        <v>204</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688498</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>6.72</v>
@@ -8414,7 +9944,7 @@
         <v>116414.69</v>
       </c>
       <c r="J87" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K87">
         <v>7</v>
@@ -8456,10 +9986,25 @@
         <v>0.28</v>
       </c>
       <c r="X87" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="Y87">
+        <v>2.1</v>
+      </c>
+      <c r="Z87">
+        <v>422</v>
+      </c>
+      <c r="AA87">
+        <v>4.58</v>
       </c>
       <c r="AC87" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8467,22 +10012,25 @@
       <c r="AG87">
         <v>3.514225721359253</v>
       </c>
-      <c r="AH87" t="s">
-        <v>204</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688502</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>4.97</v>
@@ -8500,7 +10048,7 @@
         <v>68197.33</v>
       </c>
       <c r="J88" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -8542,10 +10090,25 @@
         <v>0.04</v>
       </c>
       <c r="X88" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y88">
+        <v>3.93</v>
+      </c>
+      <c r="Z88">
+        <v>490</v>
+      </c>
+      <c r="AA88">
+        <v>7.74</v>
       </c>
       <c r="AC88" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8553,22 +10116,25 @@
       <c r="AG88">
         <v>5.703696250915527</v>
       </c>
-      <c r="AH88" t="s">
-        <v>204</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688521</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>3.27</v>
@@ -8586,7 +10152,7 @@
         <v>348508.67</v>
       </c>
       <c r="J89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K89">
         <v>12</v>
@@ -8628,10 +10194,25 @@
         <v>0.11</v>
       </c>
       <c r="X89" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y89">
+        <v>-1.14</v>
+      </c>
+      <c r="Z89">
+        <v>176.88</v>
+      </c>
+      <c r="AA89">
+        <v>-0.88</v>
       </c>
       <c r="AC89" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8639,22 +10220,25 @@
       <c r="AG89">
         <v>-0.9774772524833679</v>
       </c>
-      <c r="AH89" t="s">
-        <v>204</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688593</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>11.48</v>
@@ -8672,7 +10256,7 @@
         <v>61841.94</v>
       </c>
       <c r="J90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8714,10 +10298,25 @@
         <v>0.21</v>
       </c>
       <c r="X90" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y90">
+        <v>0.59</v>
+      </c>
+      <c r="Z90">
+        <v>26.8</v>
+      </c>
+      <c r="AA90">
+        <v>0.71</v>
       </c>
       <c r="AC90" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8725,22 +10324,25 @@
       <c r="AG90">
         <v>1.650264859199524</v>
       </c>
-      <c r="AH90" t="s">
-        <v>204</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688627</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>6.44</v>
@@ -8758,7 +10360,7 @@
         <v>68551.33</v>
       </c>
       <c r="J91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K91">
         <v>5</v>
@@ -8799,8 +10401,23 @@
       <c r="W91">
         <v>0</v>
       </c>
+      <c r="Y91">
+        <v>1.81</v>
+      </c>
+      <c r="Z91">
+        <v>156.8</v>
+      </c>
+      <c r="AA91">
+        <v>3.16</v>
+      </c>
       <c r="AC91" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8808,22 +10425,25 @@
       <c r="AG91">
         <v>3.273677349090576</v>
       </c>
-      <c r="AH91" t="s">
-        <v>204</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688629</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>16.79</v>
@@ -8841,7 +10461,7 @@
         <v>232262.5</v>
       </c>
       <c r="J92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K92">
         <v>6</v>
@@ -8883,10 +10503,25 @@
         <v>0.82</v>
       </c>
       <c r="X92" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="Y92">
+        <v>-1.19</v>
+      </c>
+      <c r="Z92">
+        <v>113</v>
+      </c>
+      <c r="AA92">
+        <v>9.32</v>
       </c>
       <c r="AC92" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD92">
+        <v>1</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -8894,22 +10529,25 @@
       <c r="AG92">
         <v>16.63932228088379</v>
       </c>
-      <c r="AH92" t="s">
-        <v>205</v>
+      <c r="AH92">
+        <v>1</v>
+      </c>
+      <c r="AI92">
+        <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688766</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>-0.1</v>
@@ -8927,7 +10565,7 @@
         <v>136538.44</v>
       </c>
       <c r="J93" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8969,10 +10607,25 @@
         <v>-0.88</v>
       </c>
       <c r="X93" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y93">
+        <v>3.12</v>
+      </c>
+      <c r="Z93">
+        <v>112.88</v>
+      </c>
+      <c r="AA93">
+        <v>7.5</v>
       </c>
       <c r="AC93" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8980,22 +10633,25 @@
       <c r="AG93">
         <v>-2.119723796844482</v>
       </c>
-      <c r="AH93" t="s">
-        <v>204</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688800</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>2.46</v>
@@ -9013,7 +10669,7 @@
         <v>80416.36</v>
       </c>
       <c r="J94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -9055,10 +10711,25 @@
         <v>0.11</v>
       </c>
       <c r="X94" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y94">
+        <v>-1.47</v>
+      </c>
+      <c r="Z94">
+        <v>81.83</v>
+      </c>
+      <c r="AA94">
+        <v>-2.72</v>
       </c>
       <c r="AC94" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -9066,22 +10737,25 @@
       <c r="AG94">
         <v>0.07611860334873199</v>
       </c>
-      <c r="AH94" t="s">
-        <v>204</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688981</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>5.79</v>
@@ -9099,7 +10773,7 @@
         <v>1404316.98</v>
       </c>
       <c r="J95" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K95">
         <v>6</v>
@@ -9140,8 +10814,23 @@
       <c r="W95">
         <v>0.04</v>
       </c>
+      <c r="Y95">
+        <v>-0.66</v>
+      </c>
+      <c r="Z95">
+        <v>127.4</v>
+      </c>
+      <c r="AA95">
+        <v>2.58</v>
+      </c>
       <c r="AC95" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -9149,8 +10838,11 @@
       <c r="AG95">
         <v>4.365320682525635</v>
       </c>
-      <c r="AH95" t="s">
-        <v>204</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
